--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col18a1</t>
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H2">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>690.2294942031893</v>
+        <v>1001.597276953886</v>
       </c>
       <c r="R2">
-        <v>6212.065447828704</v>
+        <v>9014.375492584972</v>
       </c>
       <c r="S2">
-        <v>0.054339487954597</v>
+        <v>0.08043802265759965</v>
       </c>
       <c r="T2">
-        <v>0.054339487954597</v>
+        <v>0.08043802265759967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H3">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>2441.758299917036</v>
+        <v>2141.057523481831</v>
       </c>
       <c r="R3">
-        <v>21975.82469925332</v>
+        <v>19269.51771133648</v>
       </c>
       <c r="S3">
-        <v>0.1922315647776703</v>
+        <v>0.1719477853502441</v>
       </c>
       <c r="T3">
-        <v>0.1922315647776703</v>
+        <v>0.1719477853502441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H4">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>954.8803480303837</v>
+        <v>1377.97274626031</v>
       </c>
       <c r="R4">
-        <v>8593.923132273454</v>
+        <v>12401.75471634279</v>
       </c>
       <c r="S4">
-        <v>0.0751745754211479</v>
+        <v>0.1106646409047145</v>
       </c>
       <c r="T4">
-        <v>0.07517457542114792</v>
+        <v>0.1106646409047145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H5">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>253.8210068977224</v>
+        <v>199.8387047051929</v>
       </c>
       <c r="R5">
-        <v>2284.389062079502</v>
+        <v>1798.548342346736</v>
       </c>
       <c r="S5">
-        <v>0.0199824893934223</v>
+        <v>0.01604899556619078</v>
       </c>
       <c r="T5">
-        <v>0.0199824893934223</v>
+        <v>0.01604899556619079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H6">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>716.647312748218</v>
+        <v>758.2048264230391</v>
       </c>
       <c r="R6">
-        <v>6449.825814733962</v>
+        <v>6823.843437807352</v>
       </c>
       <c r="S6">
-        <v>0.05641927553926333</v>
+        <v>0.06089123683762349</v>
       </c>
       <c r="T6">
-        <v>0.05641927553926333</v>
+        <v>0.06089123683762351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H7">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>706.6143739488369</v>
+        <v>966.3863502734962</v>
       </c>
       <c r="R7">
-        <v>6359.529365539533</v>
+        <v>8697.477152461466</v>
       </c>
       <c r="S7">
-        <v>0.05562941541068747</v>
+        <v>0.07761024208822151</v>
       </c>
       <c r="T7">
-        <v>0.05562941541068748</v>
+        <v>0.07761024208822152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>197.1440504688138</v>
+        <v>326.2553441122328</v>
       </c>
       <c r="R8">
-        <v>1774.296454219325</v>
+        <v>2936.298097010095</v>
       </c>
       <c r="S8">
-        <v>0.01552049984206698</v>
+        <v>0.02620148373573405</v>
       </c>
       <c r="T8">
-        <v>0.01552049984206698</v>
+        <v>0.02620148373573406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>697.4174902033111</v>
       </c>
       <c r="R9">
-        <v>6276.757411829801</v>
+        <v>6276.7574118298</v>
       </c>
       <c r="S9">
-        <v>0.05490537513465327</v>
+        <v>0.05600942132090387</v>
       </c>
       <c r="T9">
-        <v>0.05490537513465327</v>
+        <v>0.05600942132090388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>272.7338966311455</v>
+        <v>448.8540283133522</v>
       </c>
       <c r="R10">
-        <v>2454.60506968031</v>
+        <v>4039.68625482017</v>
       </c>
       <c r="S10">
-        <v>0.02147143872474923</v>
+        <v>0.03604735289339909</v>
       </c>
       <c r="T10">
-        <v>0.02147143872474924</v>
+        <v>0.0360473528933991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>72.49661426255889</v>
+        <v>65.09447147142889</v>
       </c>
       <c r="R11">
-        <v>652.46952836303</v>
+        <v>585.85024324286</v>
       </c>
       <c r="S11">
-        <v>0.005707418953484617</v>
+        <v>0.005227720453701217</v>
       </c>
       <c r="T11">
-        <v>0.005707418953484617</v>
+        <v>0.005227720453701219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>204.68953468277</v>
+        <v>246.9738908481411</v>
       </c>
       <c r="R12">
-        <v>1842.20581214493</v>
+        <v>2222.76501763327</v>
       </c>
       <c r="S12">
-        <v>0.01611453088826156</v>
+        <v>0.01983441038128238</v>
       </c>
       <c r="T12">
-        <v>0.01611453088826156</v>
+        <v>0.01983441038128239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>201.8239164939978</v>
+        <v>314.7859109728394</v>
       </c>
       <c r="R13">
-        <v>1816.41524844598</v>
+        <v>2833.073198755555</v>
       </c>
       <c r="S13">
-        <v>0.0158889302346253</v>
+        <v>0.0252803764763951</v>
       </c>
       <c r="T13">
-        <v>0.0158889302346253</v>
+        <v>0.02528037647639511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H14">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I14">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J14">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>1.571330284924444</v>
+        <v>0.613264787967889</v>
       </c>
       <c r="R14">
-        <v>14.14197256432</v>
+        <v>5.519383091711</v>
       </c>
       <c r="S14">
-        <v>0.0001237056425543149</v>
+        <v>4.92511392000722E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001237056425543149</v>
+        <v>4.925113920007222E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H15">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I15">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J15">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>5.558743573475556</v>
+        <v>1.310941251915556</v>
       </c>
       <c r="R15">
-        <v>50.02869216128</v>
+        <v>11.79847126724</v>
       </c>
       <c r="S15">
-        <v>0.0004376215186258737</v>
+        <v>0.0001052813586365416</v>
       </c>
       <c r="T15">
-        <v>0.0004376215186258737</v>
+        <v>0.0001052813586365416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H16">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I16">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J16">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>2.173816711601777</v>
+        <v>0.8437145183051111</v>
       </c>
       <c r="R16">
-        <v>19.564350404416</v>
+        <v>7.593430664746</v>
       </c>
       <c r="S16">
-        <v>0.0001711374086555814</v>
+        <v>6.775849845196508E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001711374086555814</v>
+        <v>6.77584984519651E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H17">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I17">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J17">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>0.5778319217564444</v>
+        <v>0.1223586002964444</v>
       </c>
       <c r="R17">
-        <v>5.200487295808</v>
+        <v>1.101227402668</v>
       </c>
       <c r="S17">
-        <v>4.549079837324758E-05</v>
+        <v>9.826588080321552E-06</v>
       </c>
       <c r="T17">
-        <v>4.549079837324758E-05</v>
+        <v>9.826588080321557E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H18">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I18">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J18">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>1.631471323072</v>
+        <v>0.4642388041695555</v>
       </c>
       <c r="R18">
-        <v>14.683241907648</v>
+        <v>4.178149237526</v>
       </c>
       <c r="S18">
-        <v>0.0001284403478160318</v>
+        <v>3.728290033085518E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001284403478160318</v>
+        <v>3.72829003308552E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H19">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I19">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J19">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>1.608631005880889</v>
+        <v>0.5917056024732221</v>
       </c>
       <c r="R19">
-        <v>14.477679052928</v>
+        <v>5.325350422259</v>
       </c>
       <c r="S19">
-        <v>0.0001266422050949383</v>
+        <v>4.751972649438526E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001266422050949383</v>
+        <v>4.751972649438528E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H20">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>628.878269574146</v>
+        <v>582.056728331809</v>
       </c>
       <c r="R20">
-        <v>5659.904426167314</v>
+        <v>5238.510554986281</v>
       </c>
       <c r="S20">
-        <v>0.04950950870895746</v>
+        <v>0.04674482786529978</v>
       </c>
       <c r="T20">
-        <v>0.04950950870895747</v>
+        <v>0.04674482786529979</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H21">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>2224.721990680529</v>
+        <v>1244.22955808956</v>
       </c>
       <c r="R21">
-        <v>20022.49791612476</v>
+        <v>11198.06602280604</v>
       </c>
       <c r="S21">
-        <v>0.1751450131154842</v>
+        <v>0.09992375946672143</v>
       </c>
       <c r="T21">
-        <v>0.1751450131154842</v>
+        <v>0.09992375946672144</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H22">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>870.0055647621024</v>
+        <v>800.779242189974</v>
       </c>
       <c r="R22">
-        <v>7830.050082858922</v>
+        <v>7207.013179709766</v>
       </c>
       <c r="S22">
-        <v>0.06849266411224327</v>
+        <v>0.06431037734338632</v>
       </c>
       <c r="T22">
-        <v>0.06849266411224328</v>
+        <v>0.06431037734338634</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H23">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>231.2600619648651</v>
+        <v>116.131967739092</v>
       </c>
       <c r="R23">
-        <v>2081.340557683786</v>
+        <v>1045.187709651828</v>
       </c>
       <c r="S23">
-        <v>0.01820634072733468</v>
+        <v>0.009326528802752325</v>
       </c>
       <c r="T23">
-        <v>0.01820634072733468</v>
+        <v>0.00932652880275233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H24">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>652.947933580174</v>
+        <v>440.614437386794</v>
       </c>
       <c r="R24">
-        <v>5876.531402221566</v>
+        <v>3965.529936481146</v>
       </c>
       <c r="S24">
-        <v>0.0514044338437297</v>
+        <v>0.03538563344099051</v>
       </c>
       <c r="T24">
-        <v>0.0514044338437297</v>
+        <v>0.03538563344099052</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H25">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>643.8067751047862</v>
+        <v>561.5946551446209</v>
       </c>
       <c r="R25">
-        <v>5794.260975943076</v>
+        <v>5054.351896301589</v>
       </c>
       <c r="S25">
-        <v>0.050684780634129</v>
+        <v>0.04510152397008733</v>
       </c>
       <c r="T25">
-        <v>0.050684780634129</v>
+        <v>0.04510152397008734</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H26">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>3.253916435726666</v>
+        <v>8.137892589135335</v>
       </c>
       <c r="R26">
-        <v>29.28524792153999</v>
+        <v>73.24103330221801</v>
       </c>
       <c r="S26">
-        <v>0.0002561700919033508</v>
+        <v>0.0006535520847867865</v>
       </c>
       <c r="T26">
-        <v>0.0002561700919033508</v>
+        <v>0.0006535520847867865</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H27">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>11.51106629157333</v>
+        <v>17.39591006701334</v>
       </c>
       <c r="R27">
-        <v>103.59959662416</v>
+        <v>156.56319060312</v>
       </c>
       <c r="S27">
-        <v>0.0009062282231471563</v>
+        <v>0.001397061114598467</v>
       </c>
       <c r="T27">
-        <v>0.0009062282231471563</v>
+        <v>0.001397061114598467</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H28">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>4.501547506594666</v>
+        <v>11.19591122883867</v>
       </c>
       <c r="R28">
-        <v>40.513927559352</v>
+        <v>100.763201059548</v>
       </c>
       <c r="S28">
-        <v>0.0003543919646523223</v>
+        <v>0.0008991407842448263</v>
       </c>
       <c r="T28">
-        <v>0.0003543919646523223</v>
+        <v>0.0008991407842448263</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H29">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>1.196576432930667</v>
+        <v>1.623672459442667</v>
       </c>
       <c r="R29">
-        <v>10.769187896376</v>
+        <v>14.613052134984</v>
       </c>
       <c r="S29">
-        <v>9.420250975952884E-05</v>
+        <v>0.0001303967224016155</v>
       </c>
       <c r="T29">
-        <v>9.420250975952884E-05</v>
+        <v>0.0001303967224016155</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H30">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>3.378456714984</v>
+        <v>6.160349653465334</v>
       </c>
       <c r="R30">
-        <v>30.406110434856</v>
+        <v>55.44314688118801</v>
       </c>
       <c r="S30">
-        <v>0.00026597473667933</v>
+        <v>0.0004947361144103781</v>
       </c>
       <c r="T30">
-        <v>0.00026597473667933</v>
+        <v>0.0004947361144103781</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H31">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>3.331158903557333</v>
+        <v>7.851806808071333</v>
       </c>
       <c r="R31">
-        <v>29.980430132016</v>
+        <v>70.666261272642</v>
       </c>
       <c r="S31">
-        <v>0.000262251136230663</v>
+        <v>0.0006305766084464063</v>
       </c>
       <c r="T31">
-        <v>0.0002622511362306631</v>
+        <v>0.0006305766084464063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.217911</v>
+      </c>
+      <c r="I32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>40.43592966666667</v>
+      </c>
+      <c r="N32">
+        <v>121.307789</v>
+      </c>
+      <c r="O32">
+        <v>0.1554054852307972</v>
+      </c>
+      <c r="P32">
+        <v>0.1554054852307972</v>
+      </c>
+      <c r="Q32">
+        <v>16.41578784541989</v>
+      </c>
+      <c r="R32">
+        <v>147.742090608779</v>
+      </c>
+      <c r="S32">
+        <v>0.001318347748176864</v>
+      </c>
+      <c r="T32">
+        <v>0.001318347748176864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.217911</v>
+      </c>
+      <c r="I33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N33">
+        <v>259.31276</v>
+      </c>
+      <c r="O33">
+        <v>0.3322014655986951</v>
+      </c>
+      <c r="P33">
+        <v>0.3322014655986951</v>
+      </c>
+      <c r="Q33">
+        <v>35.09109587159556</v>
+      </c>
+      <c r="R33">
+        <v>315.81986284436</v>
+      </c>
+      <c r="S33">
+        <v>0.002818156987590695</v>
+      </c>
+      <c r="T33">
+        <v>0.002818156987590695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.217911</v>
+      </c>
+      <c r="I34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>55.63075133333334</v>
+      </c>
+      <c r="N34">
+        <v>166.892254</v>
+      </c>
+      <c r="O34">
+        <v>0.2138030206298745</v>
+      </c>
+      <c r="P34">
+        <v>0.2138030206298745</v>
+      </c>
+      <c r="Q34">
+        <v>22.58443466237711</v>
+      </c>
+      <c r="R34">
+        <v>203.259911961394</v>
+      </c>
+      <c r="S34">
+        <v>0.001813750205677735</v>
+      </c>
+      <c r="T34">
+        <v>0.001813750205677735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.217911</v>
+      </c>
+      <c r="I35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.067777333333334</v>
+      </c>
+      <c r="N35">
+        <v>24.203332</v>
+      </c>
+      <c r="O35">
+        <v>0.03100650489691211</v>
+      </c>
+      <c r="P35">
+        <v>0.03100650489691212</v>
+      </c>
+      <c r="Q35">
+        <v>3.275278253272444</v>
+      </c>
+      <c r="R35">
+        <v>29.477504279452</v>
+      </c>
+      <c r="S35">
+        <v>0.0002630367637858525</v>
+      </c>
+      <c r="T35">
+        <v>0.0002630367637858526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.217911</v>
+      </c>
+      <c r="I36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>30.60982466666667</v>
+      </c>
+      <c r="N36">
+        <v>91.829474</v>
+      </c>
+      <c r="O36">
+        <v>0.1176412832440535</v>
+      </c>
+      <c r="P36">
+        <v>0.1176412832440535</v>
+      </c>
+      <c r="Q36">
+        <v>12.42668072320156</v>
+      </c>
+      <c r="R36">
+        <v>111.840126508814</v>
+      </c>
+      <c r="S36">
+        <v>0.0009979835694158591</v>
+      </c>
+      <c r="T36">
+        <v>0.0009979835694158591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.217911</v>
+      </c>
+      <c r="I37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>39.01441366666666</v>
+      </c>
+      <c r="N37">
+        <v>117.043241</v>
+      </c>
+      <c r="O37">
+        <v>0.1499422403996675</v>
+      </c>
+      <c r="P37">
+        <v>0.1499422403996675</v>
+      </c>
+      <c r="Q37">
+        <v>15.83869452106122</v>
+      </c>
+      <c r="R37">
+        <v>142.548250689551</v>
+      </c>
+      <c r="S37">
+        <v>0.001272001530022709</v>
+      </c>
+      <c r="T37">
+        <v>0.001272001530022709</v>
       </c>
     </row>
   </sheetData>
